--- a/SubmissionDocs/Project GANTT Chart.xlsx
+++ b/SubmissionDocs/Project GANTT Chart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF33898F-CF0B-724B-B3EE-A75A555217E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCDECCF-D881-5940-AE40-2E6DE363B395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6540" windowWidth="37200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1291,6 +1291,16 @@
     <xf numFmtId="168" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1303,16 +1313,6 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1924,7 +1924,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1945,7 +1945,7 @@
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="86" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="1"/>
@@ -1953,7 +1953,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="34"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="87" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1975,107 +1975,107 @@
       <c r="B3" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="89">
-        <f ca="1">TODAY()</f>
-        <v>44696</v>
-      </c>
-      <c r="F3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="93">
+        <f>DATE(2022,6,8)</f>
+        <v>44720</v>
+      </c>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="86">
-        <f ca="1">I5</f>
-        <v>44697</v>
-      </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="86">
-        <f ca="1">P5</f>
-        <v>44704</v>
-      </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="86">
-        <f ca="1">W5</f>
-        <v>44711</v>
-      </c>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="86">
-        <f ca="1">AD5</f>
+      <c r="I4" s="90">
+        <f>I5</f>
         <v>44718</v>
       </c>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="86">
-        <f ca="1">AK5</f>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
+        <f>P5</f>
         <v>44725</v>
       </c>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="86">
-        <f ca="1">AR5</f>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
+        <f>W5</f>
         <v>44732</v>
       </c>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="86">
-        <f ca="1">AY5</f>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
+        <f>AD5</f>
         <v>44739</v>
       </c>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="86">
-        <f ca="1">BF5</f>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
+        <f>AK5</f>
         <v>44746</v>
       </c>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
-      <c r="BL4" s="88"/>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
+        <f>AR5</f>
+        <v>44753</v>
+      </c>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
+        <f>AY5</f>
+        <v>44760</v>
+      </c>
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
+        <f>BF5</f>
+        <v>44767</v>
+      </c>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
@@ -2088,228 +2088,228 @@
       <c r="F5" s="65"/>
       <c r="G5" s="65"/>
       <c r="I5" s="83">
-        <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44697</v>
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <v>44718</v>
       </c>
       <c r="J5" s="84">
-        <f ca="1">I5+1</f>
-        <v>44698</v>
+        <f>I5+1</f>
+        <v>44719</v>
       </c>
       <c r="K5" s="84">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44699</v>
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>44720</v>
       </c>
       <c r="L5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44700</v>
+        <f t="shared" si="0"/>
+        <v>44721</v>
       </c>
       <c r="M5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44701</v>
+        <f t="shared" si="0"/>
+        <v>44722</v>
       </c>
       <c r="N5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44702</v>
+        <f t="shared" si="0"/>
+        <v>44723</v>
       </c>
       <c r="O5" s="85">
-        <f t="shared" ca="1" si="0"/>
-        <v>44703</v>
+        <f t="shared" si="0"/>
+        <v>44724</v>
       </c>
       <c r="P5" s="83">
-        <f ca="1">O5+1</f>
-        <v>44704</v>
+        <f>O5+1</f>
+        <v>44725</v>
       </c>
       <c r="Q5" s="84">
-        <f ca="1">P5+1</f>
-        <v>44705</v>
+        <f>P5+1</f>
+        <v>44726</v>
       </c>
       <c r="R5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44706</v>
+        <f t="shared" si="0"/>
+        <v>44727</v>
       </c>
       <c r="S5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44707</v>
+        <f t="shared" si="0"/>
+        <v>44728</v>
       </c>
       <c r="T5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44708</v>
+        <f t="shared" si="0"/>
+        <v>44729</v>
       </c>
       <c r="U5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44709</v>
+        <f t="shared" si="0"/>
+        <v>44730</v>
       </c>
       <c r="V5" s="85">
-        <f t="shared" ca="1" si="0"/>
-        <v>44710</v>
+        <f t="shared" si="0"/>
+        <v>44731</v>
       </c>
       <c r="W5" s="83">
-        <f ca="1">V5+1</f>
-        <v>44711</v>
+        <f>V5+1</f>
+        <v>44732</v>
       </c>
       <c r="X5" s="84">
-        <f ca="1">W5+1</f>
-        <v>44712</v>
+        <f>W5+1</f>
+        <v>44733</v>
       </c>
       <c r="Y5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44713</v>
+        <f t="shared" si="0"/>
+        <v>44734</v>
       </c>
       <c r="Z5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44714</v>
+        <f t="shared" si="0"/>
+        <v>44735</v>
       </c>
       <c r="AA5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44715</v>
+        <f t="shared" si="0"/>
+        <v>44736</v>
       </c>
       <c r="AB5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44716</v>
+        <f t="shared" si="0"/>
+        <v>44737</v>
       </c>
       <c r="AC5" s="85">
-        <f t="shared" ca="1" si="0"/>
-        <v>44717</v>
+        <f t="shared" si="0"/>
+        <v>44738</v>
       </c>
       <c r="AD5" s="83">
-        <f ca="1">AC5+1</f>
-        <v>44718</v>
+        <f>AC5+1</f>
+        <v>44739</v>
       </c>
       <c r="AE5" s="84">
-        <f ca="1">AD5+1</f>
-        <v>44719</v>
+        <f>AD5+1</f>
+        <v>44740</v>
       </c>
       <c r="AF5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44720</v>
+        <f t="shared" si="0"/>
+        <v>44741</v>
       </c>
       <c r="AG5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44721</v>
+        <f t="shared" si="0"/>
+        <v>44742</v>
       </c>
       <c r="AH5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44722</v>
+        <f t="shared" si="0"/>
+        <v>44743</v>
       </c>
       <c r="AI5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44723</v>
+        <f t="shared" si="0"/>
+        <v>44744</v>
       </c>
       <c r="AJ5" s="85">
-        <f t="shared" ca="1" si="0"/>
-        <v>44724</v>
+        <f t="shared" si="0"/>
+        <v>44745</v>
       </c>
       <c r="AK5" s="83">
-        <f ca="1">AJ5+1</f>
-        <v>44725</v>
+        <f>AJ5+1</f>
+        <v>44746</v>
       </c>
       <c r="AL5" s="84">
-        <f ca="1">AK5+1</f>
-        <v>44726</v>
+        <f>AK5+1</f>
+        <v>44747</v>
       </c>
       <c r="AM5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44727</v>
+        <f t="shared" si="0"/>
+        <v>44748</v>
       </c>
       <c r="AN5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44728</v>
+        <f t="shared" si="0"/>
+        <v>44749</v>
       </c>
       <c r="AO5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44729</v>
+        <f t="shared" si="0"/>
+        <v>44750</v>
       </c>
       <c r="AP5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44730</v>
+        <f t="shared" si="0"/>
+        <v>44751</v>
       </c>
       <c r="AQ5" s="85">
-        <f t="shared" ca="1" si="0"/>
-        <v>44731</v>
+        <f t="shared" si="0"/>
+        <v>44752</v>
       </c>
       <c r="AR5" s="83">
-        <f ca="1">AQ5+1</f>
-        <v>44732</v>
+        <f>AQ5+1</f>
+        <v>44753</v>
       </c>
       <c r="AS5" s="84">
-        <f ca="1">AR5+1</f>
-        <v>44733</v>
+        <f>AR5+1</f>
+        <v>44754</v>
       </c>
       <c r="AT5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44734</v>
+        <f t="shared" si="0"/>
+        <v>44755</v>
       </c>
       <c r="AU5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44735</v>
+        <f t="shared" si="0"/>
+        <v>44756</v>
       </c>
       <c r="AV5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44736</v>
+        <f t="shared" si="0"/>
+        <v>44757</v>
       </c>
       <c r="AW5" s="84">
-        <f t="shared" ca="1" si="0"/>
-        <v>44737</v>
+        <f t="shared" si="0"/>
+        <v>44758</v>
       </c>
       <c r="AX5" s="85">
-        <f t="shared" ca="1" si="0"/>
-        <v>44738</v>
+        <f t="shared" si="0"/>
+        <v>44759</v>
       </c>
       <c r="AY5" s="83">
-        <f ca="1">AX5+1</f>
-        <v>44739</v>
+        <f>AX5+1</f>
+        <v>44760</v>
       </c>
       <c r="AZ5" s="84">
-        <f ca="1">AY5+1</f>
-        <v>44740</v>
+        <f>AY5+1</f>
+        <v>44761</v>
       </c>
       <c r="BA5" s="84">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44741</v>
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+        <v>44762</v>
       </c>
       <c r="BB5" s="84">
-        <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
+        <f t="shared" si="1"/>
+        <v>44763</v>
       </c>
       <c r="BC5" s="84">
-        <f t="shared" ca="1" si="1"/>
-        <v>44743</v>
+        <f t="shared" si="1"/>
+        <v>44764</v>
       </c>
       <c r="BD5" s="84">
-        <f t="shared" ca="1" si="1"/>
-        <v>44744</v>
+        <f t="shared" si="1"/>
+        <v>44765</v>
       </c>
       <c r="BE5" s="85">
-        <f t="shared" ca="1" si="1"/>
-        <v>44745</v>
+        <f t="shared" si="1"/>
+        <v>44766</v>
       </c>
       <c r="BF5" s="83">
-        <f ca="1">BE5+1</f>
-        <v>44746</v>
+        <f>BE5+1</f>
+        <v>44767</v>
       </c>
       <c r="BG5" s="84">
-        <f ca="1">BF5+1</f>
-        <v>44747</v>
+        <f>BF5+1</f>
+        <v>44768</v>
       </c>
       <c r="BH5" s="84">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44748</v>
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+        <v>44769</v>
       </c>
       <c r="BI5" s="84">
-        <f t="shared" ca="1" si="2"/>
-        <v>44749</v>
+        <f t="shared" si="2"/>
+        <v>44770</v>
       </c>
       <c r="BJ5" s="84">
-        <f t="shared" ca="1" si="2"/>
-        <v>44750</v>
+        <f t="shared" si="2"/>
+        <v>44771</v>
       </c>
       <c r="BK5" s="84">
-        <f t="shared" ca="1" si="2"/>
-        <v>44751</v>
+        <f t="shared" si="2"/>
+        <v>44772</v>
       </c>
       <c r="BL5" s="85">
-        <f t="shared" ca="1" si="2"/>
-        <v>44752</v>
+        <f t="shared" si="2"/>
+        <v>44773</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2336,227 +2336,227 @@
         <v>33</v>
       </c>
       <c r="I6" s="10" t="str">
-        <f t="shared" ref="I6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f t="shared" ref="J6:AR6" ca="1" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="L6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="M6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="N6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="O6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="P6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="Q6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="R6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="S6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="T6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="U6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="V6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="W6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="X6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="Y6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="Z6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AA6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AB6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AC6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AD6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="AE6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AF6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="AG6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AH6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AJ6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AK6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="AL6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AM6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="AN6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>T</v>
       </c>
       <c r="AO6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AP6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AQ6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>S</v>
       </c>
       <c r="AR6" s="10" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>M</v>
       </c>
       <c r="AS6" s="10" t="str">
-        <f t="shared" ref="AS6:BL6" ca="1" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>W</v>
       </c>
       <c r="AU6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>T</v>
       </c>
       <c r="AV6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>F</v>
       </c>
       <c r="AW6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
       <c r="AX6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
       <c r="AY6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>M</v>
       </c>
       <c r="AZ6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>T</v>
       </c>
       <c r="BA6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>W</v>
       </c>
       <c r="BB6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>T</v>
       </c>
       <c r="BC6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>F</v>
       </c>
       <c r="BD6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
       <c r="BE6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
       <c r="BF6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>M</v>
       </c>
       <c r="BG6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>T</v>
       </c>
       <c r="BH6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>W</v>
       </c>
       <c r="BI6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>T</v>
       </c>
       <c r="BJ6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>F</v>
       </c>
       <c r="BK6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
       <c r="BL6" s="10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>S</v>
       </c>
     </row>
@@ -2714,16 +2714,16 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="70">
-        <f ca="1">Project_Start</f>
-        <v>44696</v>
+        <f>Project_Start</f>
+        <v>44720</v>
       </c>
       <c r="F9" s="70">
-        <f ca="1">E9+3</f>
-        <v>44699</v>
+        <f>E9+3</f>
+        <v>44723</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I9" s="31"/>
@@ -2795,16 +2795,16 @@
         <v>0.6</v>
       </c>
       <c r="E10" s="70">
-        <f ca="1">F9</f>
-        <v>44699</v>
+        <f>F9</f>
+        <v>44723</v>
       </c>
       <c r="F10" s="70">
-        <f ca="1">E10+2</f>
-        <v>44701</v>
+        <f>E10+2</f>
+        <v>44725</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I10" s="31"/>
@@ -2874,16 +2874,16 @@
         <v>0.5</v>
       </c>
       <c r="E11" s="70">
-        <f ca="1">F10</f>
-        <v>44701</v>
+        <f>F10</f>
+        <v>44725</v>
       </c>
       <c r="F11" s="70">
-        <f ca="1">E11+4</f>
-        <v>44705</v>
+        <f>E11+4</f>
+        <v>44729</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I11" s="31"/>
@@ -2953,16 +2953,16 @@
         <v>0.25</v>
       </c>
       <c r="E12" s="70">
-        <f ca="1">F11</f>
-        <v>44705</v>
+        <f>F11</f>
+        <v>44729</v>
       </c>
       <c r="F12" s="70">
-        <f ca="1">E12+5</f>
-        <v>44710</v>
+        <f>E12+5</f>
+        <v>44734</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I12" s="31"/>
@@ -3030,16 +3030,16 @@
       <c r="C13" s="52"/>
       <c r="D13" s="17"/>
       <c r="E13" s="70">
-        <f ca="1">E10+1</f>
-        <v>44700</v>
+        <f>E10+1</f>
+        <v>44724</v>
       </c>
       <c r="F13" s="70">
-        <f ca="1">E13+2</f>
-        <v>44702</v>
+        <f>E13+2</f>
+        <v>44726</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I13" s="31"/>
@@ -3182,16 +3182,16 @@
         <v>0.5</v>
       </c>
       <c r="E15" s="73">
-        <f ca="1">E13+1</f>
-        <v>44701</v>
+        <f>E13+1</f>
+        <v>44725</v>
       </c>
       <c r="F15" s="73">
-        <f ca="1">E15+4</f>
-        <v>44705</v>
+        <f>E15+4</f>
+        <v>44729</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I15" s="31"/>
@@ -3261,16 +3261,16 @@
         <v>0.5</v>
       </c>
       <c r="E16" s="73">
-        <f ca="1">E15+2</f>
-        <v>44703</v>
+        <f>E15+2</f>
+        <v>44727</v>
       </c>
       <c r="F16" s="73">
-        <f ca="1">E16+5</f>
-        <v>44708</v>
+        <f>E16+5</f>
+        <v>44732</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I16" s="31"/>
@@ -3338,16 +3338,16 @@
       <c r="C17" s="54"/>
       <c r="D17" s="20"/>
       <c r="E17" s="73">
-        <f ca="1">F16</f>
-        <v>44708</v>
+        <f>F16</f>
+        <v>44732</v>
       </c>
       <c r="F17" s="73">
-        <f ca="1">E17+3</f>
-        <v>44711</v>
+        <f>E17+3</f>
+        <v>44735</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I17" s="31"/>
@@ -3415,16 +3415,16 @@
       <c r="C18" s="54"/>
       <c r="D18" s="20"/>
       <c r="E18" s="73">
-        <f ca="1">E17</f>
-        <v>44708</v>
+        <f>E17</f>
+        <v>44732</v>
       </c>
       <c r="F18" s="73">
-        <f ca="1">E18+2</f>
-        <v>44710</v>
+        <f>E18+2</f>
+        <v>44734</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I18" s="31"/>
@@ -3492,16 +3492,16 @@
       <c r="C19" s="54"/>
       <c r="D19" s="20"/>
       <c r="E19" s="73">
-        <f ca="1">E18</f>
-        <v>44708</v>
+        <f>E18</f>
+        <v>44732</v>
       </c>
       <c r="F19" s="73">
-        <f ca="1">E19+3</f>
-        <v>44711</v>
+        <f>E19+3</f>
+        <v>44735</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I19" s="31"/>
@@ -3642,16 +3642,16 @@
       <c r="C21" s="56"/>
       <c r="D21" s="23"/>
       <c r="E21" s="76">
-        <f ca="1">E9+15</f>
-        <v>44711</v>
+        <f>E9+15</f>
+        <v>44735</v>
       </c>
       <c r="F21" s="76">
-        <f ca="1">E21+5</f>
-        <v>44716</v>
+        <f>E21+5</f>
+        <v>44740</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I21" s="31"/>
@@ -3719,16 +3719,16 @@
       <c r="C22" s="56"/>
       <c r="D22" s="23"/>
       <c r="E22" s="76">
-        <f ca="1">F21+1</f>
-        <v>44717</v>
+        <f>F21+1</f>
+        <v>44741</v>
       </c>
       <c r="F22" s="76">
-        <f ca="1">E22+4</f>
-        <v>44721</v>
+        <f>E22+4</f>
+        <v>44745</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I22" s="31"/>
@@ -3796,16 +3796,16 @@
       <c r="C23" s="56"/>
       <c r="D23" s="23"/>
       <c r="E23" s="76">
-        <f ca="1">E22+5</f>
-        <v>44722</v>
+        <f>E22+5</f>
+        <v>44746</v>
       </c>
       <c r="F23" s="76">
-        <f ca="1">E23+5</f>
-        <v>44727</v>
+        <f>E23+5</f>
+        <v>44751</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I23" s="31"/>
@@ -3873,16 +3873,16 @@
       <c r="C24" s="56"/>
       <c r="D24" s="23"/>
       <c r="E24" s="76">
-        <f ca="1">F23+1</f>
-        <v>44728</v>
+        <f>F23+1</f>
+        <v>44752</v>
       </c>
       <c r="F24" s="76">
-        <f ca="1">E24+4</f>
-        <v>44732</v>
+        <f>E24+4</f>
+        <v>44756</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I24" s="31"/>
@@ -3950,16 +3950,16 @@
       <c r="C25" s="56"/>
       <c r="D25" s="23"/>
       <c r="E25" s="76">
-        <f ca="1">E23</f>
-        <v>44722</v>
+        <f>E23</f>
+        <v>44746</v>
       </c>
       <c r="F25" s="76">
-        <f ca="1">E25+4</f>
-        <v>44726</v>
+        <f>E25+4</f>
+        <v>44750</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I25" s="31"/>
@@ -4623,17 +4623,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4808,12 +4808,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5105,29 +5116,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5154,13 +5158,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>